--- a/appsc/helpers/excel/ScStats.xlsx
+++ b/appsc/helpers/excel/ScStats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowHeight="17020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" r:id="rId1"/>
@@ -735,9 +735,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -785,18 +785,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,44 +825,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,7 +834,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -885,16 +878,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +909,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +1035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,109 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,31 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,26 +1112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,17 +1157,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,150 +1185,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1699,25 +1699,25 @@
   <sheetPr/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
+  <sheetFormatPr defaultColWidth="9.0625" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="14.7166666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.2416666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.06666666666667" style="5"/>
-    <col min="9" max="9" width="17.6416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.06666666666667" style="5"/>
-    <col min="12" max="12" width="14.575" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.4083333333333" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.06666666666667" style="5"/>
-    <col min="15" max="15" width="14.3166666666667" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.55" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.5666666666667" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.1166666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.2410714285714" customWidth="1"/>
+    <col min="8" max="8" width="9.0625" style="5"/>
+    <col min="9" max="9" width="17.6428571428571" customWidth="1"/>
+    <col min="11" max="11" width="9.0625" style="5"/>
+    <col min="12" max="12" width="14.5714285714286" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.4107142857143" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.0625" style="5"/>
+    <col min="15" max="15" width="14.3125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.5803571428571" style="5" customWidth="1"/>
+    <col min="17" max="17" width="15.5535714285714" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.5625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.1160714285714" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:19">
@@ -3751,7 +3751,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="N19 N15:N16 N17" numberStoredAsText="1"/>
+    <ignoredError sqref="N17 N15:N16 N19" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3766,20 +3766,20 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="17.55" customWidth="1"/>
-    <col min="2" max="2" width="15.9166666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.5535714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.9196428571429" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="16.0666666666667" customWidth="1"/>
-    <col min="5" max="5" width="21.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.7666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.6583333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.1916666666667" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.325" style="3" customWidth="1"/>
-    <col min="10" max="10" width="102.666666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.2583333333333" customWidth="1"/>
-    <col min="12" max="12" width="38.9833333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.0625" customWidth="1"/>
+    <col min="5" max="5" width="21.2678571428571" customWidth="1"/>
+    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.6607142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.1875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.3214285714286" style="3" customWidth="1"/>
+    <col min="10" max="10" width="102.669642857143" customWidth="1"/>
+    <col min="11" max="11" width="17.2589285714286" customWidth="1"/>
+    <col min="12" max="12" width="38.9821428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4130,13 +4130,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.2916666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.45" customWidth="1"/>
-    <col min="3" max="3" width="18.15" customWidth="1"/>
-    <col min="6" max="6" width="13.3833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.15" customWidth="1"/>
+    <col min="1" max="1" width="18.2946428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.1517857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.3839285714286" customWidth="1"/>
+    <col min="7" max="7" width="18.1517857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4264,20 +4264,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="24.4" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="68.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.4017857142857" customWidth="1"/>
+    <col min="6" max="6" width="9.66964285714286" customWidth="1"/>
+    <col min="11" max="11" width="68.8928571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4302,11 +4302,17 @@
       <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4331,11 +4337,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
         <v>218</v>
       </c>
@@ -4354,7 +4360,7 @@
       <c r="G3">
         <v>300</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4427,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>223</v>
       </c>
@@ -4449,7 +4455,7 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>224</v>
       </c>
     </row>

--- a/appsc/helpers/excel/ScStats.xlsx
+++ b/appsc/helpers/excel/ScStats.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>种族</t>
   </si>
@@ -696,6 +696,15 @@
     <t>防御</t>
   </si>
   <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>视野</t>
+  </si>
+  <si>
+    <t>探测距离</t>
+  </si>
+  <si>
     <t>其它</t>
   </si>
   <si>
@@ -723,10 +732,19 @@
     <t>Shield Battery</t>
   </si>
   <si>
-    <t>起始 100 点能量，每点恢复 2 点护盾。恢复能量时无法移动或攻击。</t>
+    <t>100/200</t>
+  </si>
+  <si>
+    <t>起始 100 点能量，每点恢复 2 点护盾。恢复能量时无法移动或攻击。4点恢复护盾距离</t>
   </si>
   <si>
     <t>Cybernetics Core</t>
+  </si>
+  <si>
+    <t>Photon Cannon</t>
+  </si>
+  <si>
+    <t>20|20</t>
   </si>
 </sst>
 </file>
@@ -736,8 +754,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -770,13 +788,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -785,17 +796,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,8 +835,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,29 +882,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -863,16 +889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,15 +905,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +927,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +975,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +1035,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,133 +1101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,17 +1130,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1174,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,15 +1210,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1176,174 +1218,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3751,7 +3769,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="N17 N15:N16 N19" numberStoredAsText="1"/>
+    <ignoredError sqref="N19 N15:N16 N17" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4264,20 +4282,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="24.4017857142857" customWidth="1"/>
     <col min="6" max="6" width="9.66964285714286" customWidth="1"/>
-    <col min="11" max="11" width="68.8928571428571" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.8303571428571" customWidth="1"/>
+    <col min="16" max="16" width="68.8928571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4308,16 +4327,31 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C2">
         <v>400</v>
@@ -4337,13 +4371,13 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="P2" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4360,13 +4394,13 @@
       <c r="G3">
         <v>300</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>219</v>
+      <c r="P3" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -4389,7 +4423,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -4412,7 +4446,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -4433,9 +4467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -4455,13 +4489,22 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>224</v>
+      <c r="I7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C8">
         <v>200</v>
@@ -4480,6 +4523,41 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9">
+        <v>21.645</v>
+      </c>
+      <c r="L9">
+        <v>0.924</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/appsc/helpers/excel/ScStats.xlsx
+++ b/appsc/helpers/excel/ScStats.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>种族</t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>20|20</t>
+  </si>
+  <si>
+    <t>打掉建筑后，升级的资源会退回 75%</t>
+  </si>
+  <si>
+    <t>打掉建筑后，生产中的兵的钱会全部退回，亲测</t>
   </si>
 </sst>
 </file>
@@ -4282,10 +4288,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -4560,6 +4566,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="16:16">
+      <c r="P12" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="16:16">
+      <c r="P13" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/appsc/helpers/excel/ScStats.xlsx
+++ b/appsc/helpers/excel/ScStats.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" activeTab="3"/>
+    <workbookView windowHeight="17020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" r:id="rId1"/>
-    <sheet name="魔法" sheetId="2" r:id="rId2"/>
-    <sheet name="功能增强" sheetId="3" r:id="rId3"/>
-    <sheet name="建筑" sheetId="4" r:id="rId4"/>
+    <sheet name="建筑" sheetId="4" r:id="rId2"/>
+    <sheet name="魔法" sheetId="2" r:id="rId3"/>
+    <sheet name="功能增强" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -546,6 +546,81 @@
     <t>Queen</t>
   </si>
   <si>
+    <t>矿</t>
+  </si>
+  <si>
+    <t>气</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>Cast Range</t>
+  </si>
+  <si>
+    <t>Detect Ramge</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>加 9 人口</t>
+  </si>
+  <si>
+    <t>Pylon</t>
+  </si>
+  <si>
+    <t>加 8 人口</t>
+  </si>
+  <si>
+    <t>Assimilator</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Shield Battery</t>
+  </si>
+  <si>
+    <t>100/200</t>
+  </si>
+  <si>
+    <t>起始 100 点能量，每点恢复 2 点护盾。恢复能量时无法移动或攻击。4点恢复护盾距离</t>
+  </si>
+  <si>
+    <t>Cybernetics Core</t>
+  </si>
+  <si>
+    <t>Photon Cannon</t>
+  </si>
+  <si>
+    <t>Sunken Colony</t>
+  </si>
+  <si>
+    <t>40|0</t>
+  </si>
+  <si>
+    <t>打掉建筑后，升级的资源会退回 75%</t>
+  </si>
+  <si>
+    <t>打掉建筑后，生产中的兵的钱会全部退回，亲测</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -676,81 +751,6 @@
   </si>
   <si>
     <t>这个页面的升级时间，跟 unit 详情页面的时间不一致，例如 Metabolic Boost。</t>
-  </si>
-  <si>
-    <t>矿</t>
-  </si>
-  <si>
-    <t>气</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>护盾</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>视野</t>
-  </si>
-  <si>
-    <t>探测距离</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>Nexus</t>
-  </si>
-  <si>
-    <t>加 9 人口</t>
-  </si>
-  <si>
-    <t>Pylon</t>
-  </si>
-  <si>
-    <t>加 8 人口</t>
-  </si>
-  <si>
-    <t>Assimilator</t>
-  </si>
-  <si>
-    <t>Gateway</t>
-  </si>
-  <si>
-    <t>Forge</t>
-  </si>
-  <si>
-    <t>Shield Battery</t>
-  </si>
-  <si>
-    <t>100/200</t>
-  </si>
-  <si>
-    <t>起始 100 点能量，每点恢复 2 点护盾。恢复能量时无法移动或攻击。4点恢复护盾距离</t>
-  </si>
-  <si>
-    <t>Cybernetics Core</t>
-  </si>
-  <si>
-    <t>Photon Cannon</t>
-  </si>
-  <si>
-    <t>20|20</t>
-  </si>
-  <si>
-    <t>打掉建筑后，升级的资源会退回 75%</t>
-  </si>
-  <si>
-    <t>打掉建筑后，生产中的兵的钱会全部退回，亲测</t>
   </si>
 </sst>
 </file>
@@ -758,10 +758,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -781,16 +781,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,7 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,25 +842,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,14 +857,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -872,9 +864,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,30 +886,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,7 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +963,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,151 +1113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,24 +1124,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1165,6 +1147,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,6 +1190,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1216,11 +1218,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,156 +1229,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1386,6 +1383,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1723,83 +1726,83 @@
   <sheetPr/>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0625" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
   <cols>
-    <col min="2" max="2" width="14.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.2410714285714" customWidth="1"/>
-    <col min="8" max="8" width="9.0625" style="5"/>
-    <col min="9" max="9" width="17.6428571428571" customWidth="1"/>
-    <col min="11" max="11" width="9.0625" style="5"/>
-    <col min="12" max="12" width="14.5714285714286" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20.4107142857143" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.0625" style="5"/>
-    <col min="15" max="15" width="14.3125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14.5803571428571" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.5535714285714" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.5625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.1160714285714" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.7166666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.2416666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.06666666666667" style="6"/>
+    <col min="9" max="9" width="17.6416666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.06666666666667" style="6"/>
+    <col min="12" max="12" width="14.575" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20.4083333333333" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.06666666666667" style="6"/>
+    <col min="15" max="15" width="14.3166666666667" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.5833333333333" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.55" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.5666666666667" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.1166666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:19">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1825,7 +1828,7 @@
       <c r="G2">
         <v>101</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>4</v>
       </c>
       <c r="I2">
@@ -1834,31 +1837,31 @@
       <c r="J2">
         <v>150</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>5</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>1.89</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>5.291</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="6">
         <v>9</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -1881,7 +1884,7 @@
       <c r="G3">
         <v>13</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3">
@@ -1890,19 +1893,19 @@
       <c r="J3">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>0.924</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>5.411</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <v>8</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -1925,7 +1928,7 @@
       <c r="G4">
         <v>25</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>2</v>
       </c>
       <c r="I4">
@@ -1934,25 +1937,25 @@
       <c r="J4">
         <v>60</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>0.924</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>17.316</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <v>7</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1975,7 +1978,7 @@
       <c r="G5">
         <v>32</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>2</v>
       </c>
       <c r="I5">
@@ -1984,25 +1987,25 @@
       <c r="J5">
         <v>80</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>1.26</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>15.873</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>8</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="7">
         <v>3.906</v>
       </c>
     </row>
@@ -2025,7 +2028,7 @@
       <c r="G6">
         <v>32</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>2</v>
       </c>
       <c r="I6">
@@ -2034,13 +2037,13 @@
       <c r="J6">
         <v>40</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>7</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="7">
         <v>2.478</v>
       </c>
     </row>
@@ -2063,7 +2066,7 @@
       <c r="G7">
         <v>32</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
       <c r="I7">
@@ -2072,25 +2075,25 @@
       <c r="J7">
         <v>40</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>1.26</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>31.746</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>7</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -2113,7 +2116,7 @@
       <c r="G8">
         <v>44</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>4</v>
       </c>
       <c r="I8">
@@ -2122,25 +2125,25 @@
       <c r="J8">
         <v>80</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>8</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>2.52</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>39.682</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="7">
         <v>1.317</v>
       </c>
     </row>
@@ -2163,7 +2166,7 @@
       <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
       <c r="I9">
@@ -2172,25 +2175,25 @@
       <c r="J9">
         <v>350</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>0.84</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>35.714</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>8</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -2213,7 +2216,7 @@
       <c r="G10">
         <v>13</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>4</v>
       </c>
       <c r="I10">
@@ -2222,16 +2225,16 @@
       <c r="J10">
         <v>200</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>10</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -2254,7 +2257,7 @@
       <c r="G11">
         <v>25</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="I11">
@@ -2263,10 +2266,10 @@
       <c r="J11">
         <v>20</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2289,7 +2292,7 @@
       <c r="G12">
         <v>38</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>2</v>
       </c>
       <c r="I12">
@@ -2298,13 +2301,13 @@
       <c r="J12">
         <v>60</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>8</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2327,7 +2330,7 @@
       <c r="G13">
         <v>50</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>3</v>
       </c>
       <c r="I13">
@@ -2336,25 +2339,25 @@
       <c r="J13">
         <v>100</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>4</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2377,7 +2380,7 @@
       <c r="G14">
         <v>88</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>6</v>
       </c>
       <c r="I14">
@@ -2386,16 +2389,16 @@
       <c r="J14">
         <v>150</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>4</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="6">
         <v>11</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="7">
         <v>2.478</v>
       </c>
     </row>
@@ -2418,7 +2421,7 @@
       <c r="G15">
         <v>13</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>0</v>
       </c>
       <c r="I15">
@@ -2427,22 +2430,22 @@
       <c r="J15">
         <v>40</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>1.554</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="6">
         <v>3.861</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="6">
         <v>0</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="7">
         <v>9.918</v>
       </c>
     </row>
@@ -2465,7 +2468,7 @@
       <c r="G16">
         <v>25</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>2</v>
       </c>
       <c r="I16">
@@ -2474,31 +2477,31 @@
       <c r="J16">
         <v>80</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>0.336</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="6">
         <v>14.88</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="6">
         <v>9</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="7">
         <v>4.963</v>
       </c>
     </row>
@@ -2524,28 +2527,28 @@
       <c r="G17">
         <v>13</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>1</v>
       </c>
       <c r="I17">
         <v>60</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <v>0.63</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="6">
         <v>7.936</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="6">
         <v>7</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -2568,28 +2571,28 @@
       <c r="G18">
         <v>15</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>1</v>
       </c>
       <c r="I18">
         <v>40</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="6">
         <v>7</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2612,34 +2615,34 @@
       <c r="G19">
         <v>15</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
       <c r="I19">
         <v>50</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>7</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2662,22 +2665,22 @@
       <c r="G20">
         <v>19</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>1</v>
       </c>
       <c r="I20">
         <v>60</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <v>9</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="7">
         <v>2.976</v>
       </c>
     </row>
@@ -2700,34 +2703,34 @@
       <c r="G21">
         <v>32</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>1</v>
       </c>
       <c r="I21">
         <v>45</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="7">
         <v>2.976</v>
       </c>
     </row>
@@ -2750,31 +2753,31 @@
       <c r="G22">
         <v>19</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>2</v>
       </c>
       <c r="I22">
         <v>80</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2797,22 +2800,22 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>0</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2835,34 +2838,34 @@
       <c r="G24">
         <v>32</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>2</v>
       </c>
       <c r="I24">
         <v>150</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="7">
         <v>2.976</v>
       </c>
     </row>
@@ -2885,31 +2888,31 @@
       <c r="G25">
         <v>32</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>2</v>
       </c>
       <c r="I25">
         <v>150</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <v>1</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2932,34 +2935,34 @@
       <c r="G26">
         <v>25</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>2</v>
       </c>
       <c r="I26">
         <v>125</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S26" s="6">
+      <c r="S26" s="7">
         <v>3.497</v>
       </c>
     </row>
@@ -2982,34 +2985,34 @@
       <c r="G27">
         <v>38</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>2</v>
       </c>
       <c r="I27">
         <v>120</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="7">
         <v>4.963</v>
       </c>
     </row>
@@ -3032,19 +3035,19 @@
       <c r="G28">
         <v>32</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>2</v>
       </c>
       <c r="I28">
         <v>150</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <v>1</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="7">
         <v>4.07</v>
       </c>
     </row>
@@ -3067,22 +3070,22 @@
       <c r="G29">
         <v>50</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>2</v>
       </c>
       <c r="I29">
         <v>200</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>1</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -3105,34 +3108,34 @@
       <c r="G30">
         <v>84</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>6</v>
       </c>
       <c r="I30">
         <v>500</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>3</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="7">
         <v>1.86</v>
       </c>
     </row>
@@ -3155,34 +3158,34 @@
       <c r="G31">
         <v>32</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>3</v>
       </c>
       <c r="I31">
         <v>200</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <v>2</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="7">
         <v>4.911</v>
       </c>
     </row>
@@ -3202,16 +3205,16 @@
       <c r="G32">
         <v>14</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>0</v>
       </c>
       <c r="I32">
         <v>25</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <v>10</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3228,10 +3231,10 @@
       <c r="I33">
         <v>200</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <v>10</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3254,28 +3257,28 @@
       <c r="G34">
         <v>13</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <v>1</v>
       </c>
       <c r="I34">
         <v>40</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S34" s="6">
+      <c r="S34" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -3298,28 +3301,28 @@
       <c r="G35">
         <v>18</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>0.5</v>
       </c>
       <c r="I35">
         <v>35</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S35" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3342,31 +3345,31 @@
       <c r="G36">
         <v>18</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <v>1</v>
       </c>
       <c r="I36">
         <v>80</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3389,34 +3392,34 @@
       <c r="G37">
         <v>25</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>1</v>
       </c>
       <c r="I37">
         <v>125</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <v>1</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S37" s="6">
+      <c r="S37" s="7">
         <v>4.464</v>
       </c>
     </row>
@@ -3439,31 +3442,31 @@
       <c r="G38">
         <v>38</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>4</v>
       </c>
       <c r="I38">
         <v>400</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S38" s="7" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3486,22 +3489,22 @@
       <c r="G39">
         <v>32</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>2</v>
       </c>
       <c r="I39">
         <v>80</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>1</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39" s="7">
         <v>2.976</v>
       </c>
     </row>
@@ -3524,16 +3527,16 @@
       <c r="G40">
         <v>25</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="6" t="s">
         <v>149</v>
       </c>
       <c r="I40">
         <v>200</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="S40" s="7" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3556,28 +3559,28 @@
       <c r="G41">
         <v>25</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I41">
         <v>120</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="7">
         <v>4.963</v>
       </c>
     </row>
@@ -3600,31 +3603,31 @@
       <c r="G42">
         <v>25</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="6" t="s">
         <v>155</v>
       </c>
       <c r="I42">
         <v>150</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="7">
         <v>1.86</v>
       </c>
     </row>
@@ -3647,34 +3650,34 @@
       <c r="G43">
         <v>25</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="6" t="s">
         <v>155</v>
       </c>
       <c r="I43">
         <v>250</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="7">
         <v>3.72</v>
       </c>
     </row>
@@ -3691,10 +3694,10 @@
       <c r="I44">
         <v>200</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3717,22 +3720,22 @@
       <c r="G45">
         <v>19</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="6" t="s">
         <v>162</v>
       </c>
       <c r="I45">
         <v>25</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="7">
         <v>4.963</v>
       </c>
     </row>
@@ -3755,19 +3758,19 @@
       <c r="G46">
         <v>32</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I46">
         <v>120</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="7">
         <v>4.963</v>
       </c>
     </row>
@@ -3775,7 +3778,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="N19 N15:N16 N17" numberStoredAsText="1"/>
+    <ignoredError sqref="N17 N15:N16 N19" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3784,359 +3787,349 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6"/>
   <cols>
-    <col min="1" max="1" width="17.5535714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.9196428571429" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="16.0625" customWidth="1"/>
-    <col min="5" max="5" width="21.2678571428571" customWidth="1"/>
-    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
-    <col min="7" max="7" width="16.6607142857143" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.1875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.3214285714286" style="3" customWidth="1"/>
-    <col min="10" max="10" width="102.669642857143" customWidth="1"/>
-    <col min="11" max="11" width="17.2589285714286" customWidth="1"/>
-    <col min="12" max="12" width="38.9821428571429" customWidth="1"/>
+    <col min="2" max="2" width="24.4" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="9" max="10" width="9.14166666666667" style="3"/>
+    <col min="11" max="11" width="13.0583333333333" customWidth="1"/>
+    <col min="12" max="12" width="12.2166666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.8333333333333" customWidth="1"/>
+    <col min="18" max="18" width="68.8916666666667" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
+      </c>
+      <c r="G2">
+        <v>750</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>63</v>
-      </c>
-      <c r="F3">
-        <v>150</v>
-      </c>
-      <c r="G3" s="3">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4">
+        <v>450</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5">
-        <v>112</v>
-      </c>
-      <c r="L5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>187</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>150</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F6">
+        <v>550</v>
+      </c>
+      <c r="G6">
+        <v>550</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7">
         <v>100</v>
       </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>188</v>
-      </c>
-      <c r="L6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>200</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>200</v>
       </c>
-      <c r="E7">
-        <v>76</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>200</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>0.924</v>
+      </c>
+      <c r="N9">
+        <v>21.645</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1.344</v>
+      </c>
+      <c r="N10">
+        <v>29.761</v>
+      </c>
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="E12">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>201</v>
+    </row>
+    <row r="12" spans="18:18">
+      <c r="R12" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="18:18">
+      <c r="R13" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4148,135 +4141,359 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6"/>
   <cols>
-    <col min="1" max="1" width="18.2946428571429" customWidth="1"/>
-    <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
-    <col min="3" max="3" width="18.1517857142857" customWidth="1"/>
-    <col min="6" max="6" width="13.3839285714286" customWidth="1"/>
-    <col min="7" max="7" width="18.1517857142857" customWidth="1"/>
+    <col min="1" max="1" width="17.55" customWidth="1"/>
+    <col min="2" max="2" width="15.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="16.0666666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.7666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.6583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1916666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.325" style="2" customWidth="1"/>
+    <col min="10" max="10" width="102.666666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.2583333333333" customWidth="1"/>
+    <col min="12" max="12" width="38.9833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>202</v>
       </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="F3">
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5">
+        <v>112</v>
+      </c>
+      <c r="L5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:10">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>76</v>
+      </c>
+      <c r="F12">
         <v>150</v>
       </c>
-      <c r="E4">
-        <v>150</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>150</v>
-      </c>
-      <c r="E12">
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>208</v>
+      <c r="G12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4288,291 +4505,134 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="24.4017857142857" customWidth="1"/>
-    <col min="6" max="6" width="9.66964285714286" customWidth="1"/>
-    <col min="15" max="15" width="13.8303571428571" customWidth="1"/>
-    <col min="16" max="16" width="68.8928571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.2916666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.45" customWidth="1"/>
+    <col min="3" max="3" width="18.15" customWidth="1"/>
+    <col min="6" max="6" width="13.3833333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>750</v>
-      </c>
-      <c r="G2">
-        <v>750</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
       <c r="B3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>300</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>450</v>
-      </c>
-      <c r="G4">
-        <v>450</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5">
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
         <v>150</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
-      </c>
-      <c r="G5">
-        <v>500</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6">
+      <c r="E12">
         <v>150</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>550</v>
-      </c>
-      <c r="G6">
-        <v>550</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9">
-        <v>21.645</v>
-      </c>
-      <c r="L9">
-        <v>0.924</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="16:16">
-      <c r="P12" s="1" t="s">
+      <c r="F12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="16:16">
-      <c r="P13" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>233</v>
       </c>
     </row>
